--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Kenya/Pandémie_de_Covid-19_au_Kenya.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Kenya/Pandémie_de_Covid-19_au_Kenya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Kenya démarre officiellement le 13 mars 2020. À la date du 7 octobre 2022, le bilan est de 5 678 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 mars 2020, le premier cas de Covid-19 est détecté au Kenya, chez une femme venue des États-Unis via Londres[2]. La barre des 10 cas est dépassé le 22 mars[3], celle des 100 cas le 2 avril[4], celle des 1 000 cas le 20 mai, celle des 10 000 cas le 12 juillet 2020, et celle des 100 000 cas le 25 janvier 2021.
-Le premier décès est intervenu le 26 mars 2020[5], le dixième le 14 avril, le 100e le 13 juin, et le 1000e le 1er novembre 2020.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 mars 2020, le premier cas de Covid-19 est détecté au Kenya, chez une femme venue des États-Unis via Londres. La barre des 10 cas est dépassé le 22 mars, celle des 100 cas le 2 avril, celle des 1 000 cas le 20 mai, celle des 10 000 cas le 12 juillet 2020, et celle des 100 000 cas le 25 janvier 2021.
+Le premier décès est intervenu le 26 mars 2020, le dixième le 14 avril, le 100e le 13 juin, et le 1000e le 1er novembre 2020.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,10 +586,12 @@
           <t>Impact sur la santé mentale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre les effets directs de la pandémie, on semble constater une augmentation des difficultés psychologiques de la population[6], notamment dans le camp de réfugiés de Dabaab, qui compte un demi-million de personnes[7]. Nombre d'individus sont victimes de l'anxiété et du stress[8]. On constate un certain nombre de suicides directement consécutifs à la pandémie[9] et au confinement[10].
-La population se livre parfois à des accès de violence contre les personnes susceptibles d'être infectées[11]. Bien que le taux de contamination soit faible, les personnes touchées sont susceptibles d'être stigmatisées[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les effets directs de la pandémie, on semble constater une augmentation des difficultés psychologiques de la population, notamment dans le camp de réfugiés de Dabaab, qui compte un demi-million de personnes. Nombre d'individus sont victimes de l'anxiété et du stress. On constate un certain nombre de suicides directement consécutifs à la pandémie et au confinement.
+La population se livre parfois à des accès de violence contre les personnes susceptibles d'être infectées. Bien que le taux de contamination soit faible, les personnes touchées sont susceptibles d'être stigmatisées.
 </t>
         </is>
       </c>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Campagne individuelle de sensibilisation.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Kenya</t>
+          <t>Pandémie_de_Covid-19_au_Kenya</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
